--- a/COMP WORK/Comp Data/Variables Data/Dollar Assets or Debt Abroad/US Treasury Capital Net Inflows Monthly (FRNTTNET Index) (Billions)/PoP Level Change - QoQ/Data Table US Debt.xlsx
+++ b/COMP WORK/Comp Data/Variables Data/Dollar Assets or Debt Abroad/US Treasury Capital Net Inflows Monthly (FRNTTNET Index) (Billions)/PoP Level Change - QoQ/Data Table US Debt.xlsx
@@ -1,24 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhas01\Desktop\Nahayan Minhas\Comp Data\Variables Data\Dollar Assets or Debt Abroad\US Treasury Capital Net Inflows Monthly (FRNTTNET Index) (Billions)\PoP Level Change - QoQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa79601412623896/Desktop/Comp Project/COMP WORK-20240929T014442Z-001/COMP WORK/Comp Data/Variables Data/Dollar Assets or Debt Abroad/US Treasury Capital Net Inflows Monthly (FRNTTNET Index) (Billions)/PoP Level Change - QoQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="369" documentId="11_D63A96EEB570775AEC89DE2E7E8987D965329D0F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E53D871E-0EDB-4E2F-854B-BED527CA985B}"/>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="-105" windowWidth="14850" windowHeight="12735" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="2" r:id="rId1"/>
-    <sheet name="Quarterly Only" sheetId="3" r:id="rId2"/>
+    <sheet name="Qrtly Aggregated QoQ Lvl Change" sheetId="6" r:id="rId2"/>
+    <sheet name="Quarterly Only" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Quarterly Only'!$A$1:$B$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quarterly Only'!$A$1:$B$125</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -40,9 +55,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -528,11 +544,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -560,7 +577,7 @@
     <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="blp_datetime" xfId="42"/>
+    <cellStyle name="blp_datetime" xfId="42" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
@@ -592,10 +609,1575 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Qrtly Aggregated QoQ Lvl Change'!$A$1:$A$118</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy;@</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>34607</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34880</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35246</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35430</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35520</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35611</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35703</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35795</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35885</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35976</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36068</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36341</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36433</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36525</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36616</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36707</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36799</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36891</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36981</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37072</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37164</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37256</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37346</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>37437</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37529</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37621</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37711</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37802</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37894</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37986</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38077</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38168</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>38260</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38352</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>38442</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>38533</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>38625</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>38717</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38807</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>38898</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38990</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39082</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39172</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39263</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>39355</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>39447</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>39538</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39629</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39721</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>39813</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>39903</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>39994</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>40086</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40268</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>40451</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>40633</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40816</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>41182</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41364</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>41547</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>41729</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41912</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42277</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43738</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>45291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Qrtly Aggregated QoQ Lvl Change'!$B$1:$B$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-29.900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-32.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-73.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-27.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-78.199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-22.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-17.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>106.39999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-156.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>109.10000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-87.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-65.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-19.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-8.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>124.10000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-138.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-20.899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31.499999999999989</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>69.100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-85.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>133.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-146</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>168.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-292.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>366.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-383.09999999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>104.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-42.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>65.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-387.1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>285.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-163.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>188.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-94.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-298.7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>656.19999999999993</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-563.19999999999993</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>311.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-112.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>355.09999999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1000.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>714.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>179.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-194.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-91.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>66.699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>153.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-249</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>260.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-426.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>345.9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-82.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-60.199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>164.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-112</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-197.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>335.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-174</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-125.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>274.2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.9000000000000199</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-240.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>151.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-74.7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-72.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>324.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-376</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>243.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-68.699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-137.6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>225.79999999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-138.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>250.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-196.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-63.2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>105.70000000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-80.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>403.8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-782.2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>313.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-44.899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>334.8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-209.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>30.400000000000013</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-663.1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>131.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>357.40000000000003</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>25.599999999999966</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-311.2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>210.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-72.700000000000017</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>200.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-631.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>753.89999999999986</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-412.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>17.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-395.90000000000009</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>740.40000000000009</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-274.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D431-49B5-A394-AEF4A8F8AEC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1011244863"/>
+        <c:axId val="1011246303"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1011244863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011246303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1011246303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011244863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4345C558-E8AC-F2BF-24E3-0F89B85AC602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -633,9 +2215,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -670,7 +2252,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -705,7 +2287,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -878,20 +2460,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B362"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+    <sheetView topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -899,17 +2481,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45322</v>
       </c>
@@ -918,7 +2500,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45291</v>
       </c>
@@ -927,7 +2509,7 @@
         <v>178.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45260</v>
       </c>
@@ -936,7 +2518,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45230</v>
       </c>
@@ -945,7 +2527,7 @@
         <v>-221.9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45199</v>
       </c>
@@ -954,7 +2536,7 @@
         <v>-136.6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45169</v>
       </c>
@@ -963,7 +2545,7 @@
         <v>321.7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45138</v>
       </c>
@@ -972,7 +2554,7 @@
         <v>115.3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45107</v>
       </c>
@@ -981,7 +2563,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45077</v>
       </c>
@@ -990,7 +2572,7 @@
         <v>-273.3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45046</v>
       </c>
@@ -999,7 +2581,7 @@
         <v>-162.9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45016</v>
       </c>
@@ -1008,7 +2590,7 @@
         <v>67.7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44985</v>
       </c>
@@ -1017,7 +2599,7 @@
         <v>-118.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44957</v>
       </c>
@@ -1026,7 +2608,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44926</v>
       </c>
@@ -1035,7 +2617,7 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44895</v>
       </c>
@@ -1044,7 +2626,7 @@
         <v>-51.3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44865</v>
       </c>
@@ -1053,7 +2635,7 @@
         <v>-7.3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44834</v>
       </c>
@@ -1062,7 +2644,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44804</v>
       </c>
@@ -1071,7 +2653,7 @@
         <v>88.6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44773</v>
       </c>
@@ -1080,7 +2662,7 @@
         <v>193.2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44742</v>
       </c>
@@ -1089,7 +2671,7 @@
         <v>-151.69999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44712</v>
       </c>
@@ -1098,7 +2680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44681</v>
       </c>
@@ -1107,7 +2689,7 @@
         <v>-263.5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44651</v>
       </c>
@@ -1116,7 +2698,7 @@
         <v>166.2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44620</v>
       </c>
@@ -1125,7 +2707,7 @@
         <v>-39.4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44592</v>
       </c>
@@ -1134,7 +2716,7 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44561</v>
       </c>
@@ -1143,7 +2725,7 @@
         <v>-41.9</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44530</v>
       </c>
@@ -1152,7 +2734,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44500</v>
       </c>
@@ -1161,7 +2743,7 @@
         <v>-80.7</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44469</v>
       </c>
@@ -1170,7 +2752,7 @@
         <v>-20.5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44439</v>
       </c>
@@ -1179,7 +2761,7 @@
         <v>-24.3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44408</v>
       </c>
@@ -1188,7 +2770,7 @@
         <v>144.9</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44377</v>
       </c>
@@ -1197,7 +2779,7 @@
         <v>-125.5</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44347</v>
       </c>
@@ -1206,7 +2788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44316</v>
       </c>
@@ -1215,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44286</v>
       </c>
@@ -1224,7 +2806,7 @@
         <v>148.6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44255</v>
       </c>
@@ -1233,7 +2815,7 @@
         <v>-51.4</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44227</v>
       </c>
@@ -1242,7 +2824,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44196</v>
       </c>
@@ -1251,7 +2833,7 @@
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44165</v>
       </c>
@@ -1260,7 +2842,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44135</v>
       </c>
@@ -1269,7 +2851,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44104</v>
       </c>
@@ -1278,7 +2860,7 @@
         <v>-19.899999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44074</v>
       </c>
@@ -1287,7 +2869,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44043</v>
       </c>
@@ -1296,7 +2878,7 @@
         <v>-206.8</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44012</v>
       </c>
@@ -1305,7 +2887,7 @@
         <v>-372.1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43982</v>
       </c>
@@ -1314,7 +2896,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43951</v>
       </c>
@@ -1323,7 +2905,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -1332,7 +2914,7 @@
         <v>251.1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43890</v>
       </c>
@@ -1341,7 +2923,7 @@
         <v>-88.3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43861</v>
       </c>
@@ -1350,7 +2932,7 @@
         <v>186.5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43830</v>
       </c>
@@ -1359,7 +2941,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43799</v>
       </c>
@@ -1368,7 +2950,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43769</v>
       </c>
@@ -1377,7 +2959,7 @@
         <v>-125.1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43738</v>
       </c>
@@ -1386,7 +2968,7 @@
         <v>-33.700000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43708</v>
       </c>
@@ -1395,7 +2977,7 @@
         <v>-37.5</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43677</v>
       </c>
@@ -1404,7 +2986,7 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43646</v>
       </c>
@@ -1413,7 +2995,7 @@
         <v>-32.200000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43616</v>
       </c>
@@ -1422,7 +3004,7 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43585</v>
       </c>
@@ -1431,7 +3013,7 @@
         <v>152.9</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43555</v>
       </c>
@@ -1440,7 +3022,7 @@
         <v>129.5</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43524</v>
       </c>
@@ -1449,7 +3031,7 @@
         <v>-41.3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43496</v>
       </c>
@@ -1458,7 +3040,7 @@
         <v>-225.9</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43465</v>
       </c>
@@ -1467,7 +3049,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43434</v>
       </c>
@@ -1476,7 +3058,7 @@
         <v>-55.4</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43404</v>
       </c>
@@ -1485,7 +3067,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43373</v>
       </c>
@@ -1494,7 +3076,7 @@
         <v>-220.3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43343</v>
       </c>
@@ -1503,7 +3085,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43312</v>
       </c>
@@ -1512,7 +3094,7 @@
         <v>-191.7</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43281</v>
       </c>
@@ -1521,7 +3103,7 @@
         <v>253.4</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43251</v>
       </c>
@@ -1530,7 +3112,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43220</v>
       </c>
@@ -1539,7 +3121,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43190</v>
       </c>
@@ -1548,7 +3130,7 @@
         <v>-45.2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43159</v>
       </c>
@@ -1557,7 +3139,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43131</v>
       </c>
@@ -1566,7 +3148,7 @@
         <v>-9.6</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43100</v>
       </c>
@@ -1575,7 +3157,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43069</v>
       </c>
@@ -1584,7 +3166,7 @@
         <v>-97.1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43039</v>
       </c>
@@ -1593,7 +3175,7 @@
         <v>122.8</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43008</v>
       </c>
@@ -1602,7 +3184,7 @@
         <v>-82.2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>42978</v>
       </c>
@@ -1611,7 +3193,7 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>42947</v>
       </c>
@@ -1620,7 +3202,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>42916</v>
       </c>
@@ -1629,7 +3211,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>42886</v>
       </c>
@@ -1638,7 +3220,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>42855</v>
       </c>
@@ -1647,7 +3229,7 @@
         <v>-46.2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>42825</v>
       </c>
@@ -1656,7 +3238,7 @@
         <v>111.2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>42794</v>
       </c>
@@ -1665,7 +3247,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>42766</v>
       </c>
@@ -1674,7 +3256,7 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>42735</v>
       </c>
@@ -1683,7 +3265,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>42704</v>
       </c>
@@ -1692,7 +3274,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>42674</v>
       </c>
@@ -1701,7 +3283,7 @@
         <v>-95.7</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>42643</v>
       </c>
@@ -1710,7 +3292,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>42613</v>
       </c>
@@ -1719,7 +3301,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>42582</v>
       </c>
@@ -1728,7 +3310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>42551</v>
       </c>
@@ -1737,7 +3319,7 @@
         <v>-87.5</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>42521</v>
       </c>
@@ -1746,7 +3328,7 @@
         <v>-27.2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>42490</v>
       </c>
@@ -1755,7 +3337,7 @@
         <v>-16.399999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>42460</v>
       </c>
@@ -1764,7 +3346,7 @@
         <v>-23.2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>42429</v>
       </c>
@@ -1773,7 +3355,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>42400</v>
       </c>
@@ -1782,7 +3364,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>42369</v>
       </c>
@@ -1791,7 +3373,7 @@
         <v>120.6</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>42338</v>
       </c>
@@ -1800,7 +3382,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>42308</v>
       </c>
@@ -1809,7 +3391,7 @@
         <v>-63.6</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>42277</v>
       </c>
@@ -1818,7 +3400,7 @@
         <v>-67.099999999999994</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>42247</v>
       </c>
@@ -1827,7 +3409,7 @@
         <v>-135</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>42216</v>
       </c>
@@ -1836,7 +3418,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>42185</v>
       </c>
@@ -1845,7 +3427,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>42155</v>
       </c>
@@ -1854,7 +3436,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>42124</v>
       </c>
@@ -1863,7 +3445,7 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>42094</v>
       </c>
@@ -1872,7 +3454,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>42063</v>
       </c>
@@ -1881,7 +3463,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>42035</v>
       </c>
@@ -1890,7 +3472,7 @@
         <v>-153.4</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>42004</v>
       </c>
@@ -1899,7 +3481,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>41973</v>
       </c>
@@ -1908,7 +3490,7 @@
         <v>-67.400000000000006</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>41943</v>
       </c>
@@ -1917,7 +3499,7 @@
         <v>113.9</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>41912</v>
       </c>
@@ -1926,7 +3508,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>41882</v>
       </c>
@@ -1935,7 +3517,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>41851</v>
       </c>
@@ -1944,7 +3526,7 @@
         <v>-72.7</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>41820</v>
       </c>
@@ -1953,7 +3535,7 @@
         <v>-46.7</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>41790</v>
       </c>
@@ -1962,7 +3544,7 @@
         <v>-123</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>41759</v>
       </c>
@@ -1971,7 +3553,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>41729</v>
       </c>
@@ -1980,7 +3562,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>41698</v>
       </c>
@@ -1989,7 +3571,7 @@
         <v>160.4</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>41670</v>
       </c>
@@ -1998,7 +3580,7 @@
         <v>-84.6</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>41639</v>
       </c>
@@ -2007,7 +3589,7 @@
         <v>-38.4</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>41608</v>
       </c>
@@ -2016,7 +3598,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>41578</v>
       </c>
@@ -2025,7 +3607,7 @@
         <v>132.9</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>41547</v>
       </c>
@@ -2034,7 +3616,7 @@
         <v>-71.7</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>41517</v>
       </c>
@@ -2043,7 +3625,7 @@
         <v>-81.400000000000006</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>41486</v>
       </c>
@@ -2052,7 +3634,7 @@
         <v>-7.4</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>41455</v>
       </c>
@@ -2061,7 +3643,7 @@
         <v>-17.8</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>41425</v>
       </c>
@@ -2070,7 +3652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>41394</v>
       </c>
@@ -2079,7 +3661,7 @@
         <v>-41.9</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>41364</v>
       </c>
@@ -2088,7 +3670,7 @@
         <v>-34.799999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>41333</v>
       </c>
@@ -2097,7 +3679,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>41305</v>
       </c>
@@ -2106,7 +3688,7 @@
         <v>159.30000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>41274</v>
       </c>
@@ -2115,7 +3697,7 @@
         <v>-17.3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>41243</v>
       </c>
@@ -2124,7 +3706,7 @@
         <v>-31.1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>41213</v>
       </c>
@@ -2133,7 +3715,7 @@
         <v>-148</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>41182</v>
       </c>
@@ -2142,7 +3724,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>41152</v>
       </c>
@@ -2151,7 +3733,7 @@
         <v>-81.400000000000006</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>41121</v>
       </c>
@@ -2160,7 +3742,7 @@
         <v>75.3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>41090</v>
       </c>
@@ -2169,7 +3751,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>41060</v>
       </c>
@@ -2178,7 +3760,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>41029</v>
       </c>
@@ -2187,7 +3769,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>40999</v>
       </c>
@@ -2196,7 +3778,7 @@
         <v>-144.1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>40968</v>
       </c>
@@ -2205,7 +3787,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>40939</v>
       </c>
@@ -2214,7 +3796,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>40908</v>
       </c>
@@ -2223,7 +3805,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>40877</v>
       </c>
@@ -2232,7 +3814,7 @@
         <v>-59.5</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>40847</v>
       </c>
@@ -2241,7 +3823,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>40816</v>
       </c>
@@ -2250,7 +3832,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>40786</v>
       </c>
@@ -2259,7 +3841,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>40755</v>
       </c>
@@ -2268,7 +3850,7 @@
         <v>-134.9</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>40724</v>
       </c>
@@ -2277,7 +3859,7 @@
         <v>-160.5</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>40694</v>
       </c>
@@ -2286,7 +3868,7 @@
         <v>-118.8</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>40663</v>
       </c>
@@ -2295,7 +3877,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>40633</v>
       </c>
@@ -2304,7 +3886,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>40602</v>
       </c>
@@ -2313,7 +3895,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>40574</v>
       </c>
@@ -2322,7 +3904,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>40543</v>
       </c>
@@ -2331,7 +3913,7 @@
         <v>-26.2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>40512</v>
       </c>
@@ -2340,7 +3922,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>40482</v>
       </c>
@@ -2349,7 +3931,7 @@
         <v>-72.599999999999994</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>40451</v>
       </c>
@@ -2358,7 +3940,7 @@
         <v>94.7</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>40421</v>
       </c>
@@ -2367,7 +3949,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>40390</v>
       </c>
@@ -2376,7 +3958,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>40359</v>
       </c>
@@ -2385,7 +3967,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>40329</v>
       </c>
@@ -2394,7 +3976,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>40298</v>
       </c>
@@ -2403,7 +3985,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>40268</v>
       </c>
@@ -2412,7 +3994,7 @@
         <v>-69.599999999999994</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>40237</v>
       </c>
@@ -2421,7 +4003,7 @@
         <v>-8.5</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>40209</v>
       </c>
@@ -2430,7 +4012,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>40178</v>
       </c>
@@ -2439,7 +4021,7 @@
         <v>-21.4</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>40147</v>
       </c>
@@ -2448,7 +4030,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>40117</v>
       </c>
@@ -2457,7 +4039,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>40086</v>
       </c>
@@ -2466,7 +4048,7 @@
         <v>180.3</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>40056</v>
       </c>
@@ -2475,7 +4057,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>40025</v>
       </c>
@@ -2484,7 +4066,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>39994</v>
       </c>
@@ -2493,7 +4075,7 @@
         <v>-150.6</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>39964</v>
       </c>
@@ -2502,7 +4084,7 @@
         <v>105.4</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>39933</v>
       </c>
@@ -2511,7 +4093,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>39903</v>
       </c>
@@ -2520,7 +4102,7 @@
         <v>-22.7</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>39872</v>
       </c>
@@ -2529,7 +4111,7 @@
         <v>-218.8</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>39844</v>
       </c>
@@ -2538,7 +4120,7 @@
         <v>-426</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>39813</v>
       </c>
@@ -2547,7 +4129,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>39782</v>
       </c>
@@ -2556,7 +4138,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>39752</v>
       </c>
@@ -2565,7 +4147,7 @@
         <v>290.5</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>39721</v>
       </c>
@@ -2574,7 +4156,7 @@
         <v>-9.6</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>39691</v>
       </c>
@@ -2583,7 +4165,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>39660</v>
       </c>
@@ -2592,7 +4174,7 @@
         <v>-88.1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>39629</v>
       </c>
@@ -2601,7 +4183,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>39599</v>
       </c>
@@ -2610,7 +4192,7 @@
         <v>-89.8</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>39568</v>
       </c>
@@ -2619,7 +4201,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>39538</v>
       </c>
@@ -2628,7 +4210,7 @@
         <v>-90.4</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>39507</v>
       </c>
@@ -2637,7 +4219,7 @@
         <v>-76.3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>39478</v>
       </c>
@@ -2646,7 +4228,7 @@
         <v>-53.7</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>39447</v>
       </c>
@@ -2655,7 +4237,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>39416</v>
       </c>
@@ -2664,7 +4246,7 @@
         <v>263.89999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>39386</v>
       </c>
@@ -2673,7 +4255,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>39355</v>
       </c>
@@ -2682,7 +4264,7 @@
         <v>-69.7</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>39325</v>
       </c>
@@ -2691,7 +4273,7 @@
         <v>-244.6</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>39294</v>
       </c>
@@ -2700,7 +4282,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>39263</v>
       </c>
@@ -2709,7 +4291,7 @@
         <v>-14.8</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>39233</v>
       </c>
@@ -2718,7 +4300,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>39202</v>
       </c>
@@ -2727,7 +4309,7 @@
         <v>-6.5</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>39172</v>
       </c>
@@ -2736,7 +4318,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>39141</v>
       </c>
@@ -2745,7 +4327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>39113</v>
       </c>
@@ -2754,7 +4336,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>39082</v>
       </c>
@@ -2763,7 +4345,7 @@
         <v>-96.5</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>39051</v>
       </c>
@@ -2772,7 +4354,7 @@
         <v>-22.2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>39021</v>
       </c>
@@ -2781,7 +4363,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>38990</v>
       </c>
@@ -2790,7 +4372,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>38960</v>
       </c>
@@ -2799,7 +4381,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>38929</v>
       </c>
@@ -2808,7 +4390,7 @@
         <v>-30.6</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>38898</v>
       </c>
@@ -2817,7 +4399,7 @@
         <v>-94</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>38868</v>
       </c>
@@ -2826,7 +4408,7 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>38837</v>
       </c>
@@ -2835,7 +4417,7 @@
         <v>-133</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>38807</v>
       </c>
@@ -2844,7 +4426,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>38776</v>
       </c>
@@ -2853,7 +4435,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>38748</v>
       </c>
@@ -2862,7 +4444,7 @@
         <v>106.3</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>38717</v>
       </c>
@@ -2871,7 +4453,7 @@
         <v>-11.5</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>38686</v>
       </c>
@@ -2880,7 +4462,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>38656</v>
       </c>
@@ -2889,7 +4471,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>38625</v>
       </c>
@@ -2898,7 +4480,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>38595</v>
       </c>
@@ -2907,7 +4489,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>38564</v>
       </c>
@@ -2916,7 +4498,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>38533</v>
       </c>
@@ -2925,7 +4507,7 @@
         <v>-105.3</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>38503</v>
       </c>
@@ -2934,7 +4516,7 @@
         <v>-20.9</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>38472</v>
       </c>
@@ -2943,7 +4525,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>38442</v>
       </c>
@@ -2952,7 +4534,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>38411</v>
       </c>
@@ -2961,7 +4543,7 @@
         <v>-107.2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>38383</v>
       </c>
@@ -2970,7 +4552,7 @@
         <v>-85.5</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>38352</v>
       </c>
@@ -2979,7 +4561,7 @@
         <v>70.7</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>38321</v>
       </c>
@@ -2988,7 +4570,7 @@
         <v>104.2</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>38291</v>
       </c>
@@ -2997,7 +4579,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>38260</v>
       </c>
@@ -3006,7 +4588,7 @@
         <v>-171.8</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>38230</v>
       </c>
@@ -3015,7 +4597,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>38199</v>
       </c>
@@ -3024,7 +4606,7 @@
         <v>-10.1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>38168</v>
       </c>
@@ -3033,7 +4615,7 @@
         <v>142.69999999999999</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>38138</v>
       </c>
@@ -3042,7 +4624,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>38107</v>
       </c>
@@ -3051,7 +4633,7 @@
         <v>-68</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>38077</v>
       </c>
@@ -3060,7 +4642,7 @@
         <v>-32.4</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>38046</v>
       </c>
@@ -3069,7 +4651,7 @@
         <v>-85.4</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>38017</v>
       </c>
@@ -3078,7 +4660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>37986</v>
       </c>
@@ -3087,7 +4669,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>37955</v>
       </c>
@@ -3096,7 +4678,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>37925</v>
       </c>
@@ -3105,7 +4687,7 @@
         <v>-46.6</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>37894</v>
       </c>
@@ -3114,7 +4696,7 @@
         <v>-43.7</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>37864</v>
       </c>
@@ -3123,7 +4705,7 @@
         <v>-39.9</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>37833</v>
       </c>
@@ -3132,7 +4714,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>37802</v>
       </c>
@@ -3141,7 +4723,7 @@
         <v>-4.7</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>37772</v>
       </c>
@@ -3150,7 +4732,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>37741</v>
       </c>
@@ -3159,7 +4741,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>37711</v>
       </c>
@@ -3168,7 +4750,7 @@
         <v>-28.3</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>37680</v>
       </c>
@@ -3177,7 +4759,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>37652</v>
       </c>
@@ -3186,7 +4768,7 @@
         <v>-40.6</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>37621</v>
       </c>
@@ -3195,7 +4777,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>37590</v>
       </c>
@@ -3204,7 +4786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>37560</v>
       </c>
@@ -3213,7 +4795,7 @@
         <v>-77.3</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>37529</v>
       </c>
@@ -3222,7 +4804,7 @@
         <v>-43.2</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>37499</v>
       </c>
@@ -3231,7 +4813,7 @@
         <v>-32.799999999999997</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>37468</v>
       </c>
@@ -3240,7 +4822,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>37437</v>
       </c>
@@ -3249,7 +4831,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>37407</v>
       </c>
@@ -3258,7 +4840,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>37376</v>
       </c>
@@ -3267,7 +4849,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>37346</v>
       </c>
@@ -3276,7 +4858,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>37315</v>
       </c>
@@ -3285,7 +4867,7 @@
         <v>-24.8</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>37287</v>
       </c>
@@ -3294,7 +4876,7 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>37256</v>
       </c>
@@ -3303,7 +4885,7 @@
         <v>-9.1999999999999993</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>37225</v>
       </c>
@@ -3312,7 +4894,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>37195</v>
       </c>
@@ -3321,7 +4903,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>37164</v>
       </c>
@@ -3330,7 +4912,7 @@
         <v>-5.7</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>37134</v>
       </c>
@@ -3339,7 +4921,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>37103</v>
       </c>
@@ -3348,7 +4930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>37072</v>
       </c>
@@ -3357,7 +4939,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>37042</v>
       </c>
@@ -3366,7 +4948,7 @@
         <v>-18.5</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>37011</v>
       </c>
@@ -3375,7 +4957,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>36981</v>
       </c>
@@ -3384,7 +4966,7 @@
         <v>-39.5</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>36950</v>
       </c>
@@ -3393,7 +4975,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>36922</v>
       </c>
@@ -3402,7 +4984,7 @@
         <v>-15.9</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>36891</v>
       </c>
@@ -3411,7 +4993,7 @@
         <v>-9.9</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>36860</v>
       </c>
@@ -3420,7 +5002,7 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>36830</v>
       </c>
@@ -3429,7 +5011,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>36799</v>
       </c>
@@ -3438,7 +5020,7 @@
         <v>-4.5999999999999996</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>36769</v>
       </c>
@@ -3447,7 +5029,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>36738</v>
       </c>
@@ -3456,7 +5038,7 @@
         <v>58.9</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>36707</v>
       </c>
@@ -3465,7 +5047,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>36677</v>
       </c>
@@ -3474,7 +5056,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>36646</v>
       </c>
@@ -3483,7 +5065,7 @@
         <v>-20.8</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>36616</v>
       </c>
@@ -3492,7 +5074,7 @@
         <v>-58.8</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>36585</v>
       </c>
@@ -3501,7 +5083,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>36556</v>
       </c>
@@ -3510,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>36525</v>
       </c>
@@ -3519,7 +5101,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>36494</v>
       </c>
@@ -3528,7 +5110,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>36464</v>
       </c>
@@ -3537,7 +5119,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>36433</v>
       </c>
@@ -3546,7 +5128,7 @@
         <v>-66.599999999999994</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>36403</v>
       </c>
@@ -3555,7 +5137,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>36372</v>
       </c>
@@ -3564,7 +5146,7 @@
         <v>-18.399999999999999</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>36341</v>
       </c>
@@ -3573,7 +5155,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>36311</v>
       </c>
@@ -3582,7 +5164,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>36280</v>
       </c>
@@ -3591,7 +5173,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>36250</v>
       </c>
@@ -3600,7 +5182,7 @@
         <v>-21.9</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>36219</v>
       </c>
@@ -3609,7 +5191,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>36191</v>
       </c>
@@ -3618,7 +5200,7 @@
         <v>-50.8</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>36160</v>
       </c>
@@ -3627,7 +5209,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>36129</v>
       </c>
@@ -3636,7 +5218,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>36099</v>
       </c>
@@ -3645,7 +5227,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>36068</v>
       </c>
@@ -3654,7 +5236,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>36038</v>
       </c>
@@ -3663,7 +5245,7 @@
         <v>-11.7</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>36007</v>
       </c>
@@ -3672,7 +5254,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>35976</v>
       </c>
@@ -3681,7 +5263,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>35946</v>
       </c>
@@ -3690,7 +5272,7 @@
         <v>-25.7</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>35915</v>
       </c>
@@ -3699,7 +5281,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>35885</v>
       </c>
@@ -3708,7 +5290,7 @@
         <v>-24.7</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>35854</v>
       </c>
@@ -3717,7 +5299,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>35826</v>
       </c>
@@ -3726,7 +5308,7 @@
         <v>-16.100000000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>35795</v>
       </c>
@@ -3735,7 +5317,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>35764</v>
       </c>
@@ -3744,7 +5326,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>35734</v>
       </c>
@@ -3753,7 +5335,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>35703</v>
       </c>
@@ -3762,7 +5344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>35673</v>
       </c>
@@ -3771,7 +5353,7 @@
         <v>-18.100000000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>35642</v>
       </c>
@@ -3780,7 +5362,7 @@
         <v>-20.6</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>35611</v>
       </c>
@@ -3789,7 +5371,7 @@
         <v>-18.399999999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>35581</v>
       </c>
@@ -3798,7 +5380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>35550</v>
       </c>
@@ -3807,7 +5389,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>35520</v>
       </c>
@@ -3816,7 +5398,7 @@
         <v>-24.2</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>35489</v>
       </c>
@@ -3825,7 +5407,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>35461</v>
       </c>
@@ -3834,7 +5416,7 @@
         <v>-21.1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>35430</v>
       </c>
@@ -3843,7 +5425,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>35399</v>
       </c>
@@ -3852,7 +5434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>35369</v>
       </c>
@@ -3861,7 +5443,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>35338</v>
       </c>
@@ -3870,7 +5452,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>35308</v>
       </c>
@@ -3879,7 +5461,7 @@
         <v>-21.1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>35277</v>
       </c>
@@ -3888,7 +5470,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>35246</v>
       </c>
@@ -3897,7 +5479,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>35216</v>
       </c>
@@ -3906,7 +5488,7 @@
         <v>-6.7</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>35185</v>
       </c>
@@ -3915,7 +5497,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>35155</v>
       </c>
@@ -3924,7 +5506,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>35124</v>
       </c>
@@ -3933,7 +5515,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>35095</v>
       </c>
@@ -3942,7 +5524,7 @@
         <v>-4.0999999999999996</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>35064</v>
       </c>
@@ -3951,7 +5533,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>35033</v>
       </c>
@@ -3960,7 +5542,7 @@
         <v>-15.7</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>35003</v>
       </c>
@@ -3969,7 +5551,7 @@
         <v>-26.2</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>34972</v>
       </c>
@@ -3978,7 +5560,7 @@
         <v>-8.9</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>34942</v>
       </c>
@@ -3987,7 +5569,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>34911</v>
       </c>
@@ -3996,7 +5578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>34880</v>
       </c>
@@ -4005,7 +5587,7 @@
         <v>-5.7</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>34850</v>
       </c>
@@ -4014,7 +5596,7 @@
         <v>-19.3</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>34819</v>
       </c>
@@ -4023,7 +5605,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>34789</v>
       </c>
@@ -4032,7 +5614,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>34758</v>
       </c>
@@ -4041,7 +5623,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>34730</v>
       </c>
@@ -4050,7 +5632,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>34699</v>
       </c>
@@ -4059,7 +5641,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>34668</v>
       </c>
@@ -4068,7 +5650,7 @@
         <v>-9.4</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>34638</v>
       </c>
@@ -4077,7 +5659,7 @@
         <v>-8.3000000000000007</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>34607</v>
       </c>
@@ -4086,7 +5668,7 @@
         <v>-7.7</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>34577</v>
       </c>
@@ -4095,7 +5677,7 @@
         <v>-10.4</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>34546</v>
       </c>
@@ -4104,7 +5686,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>34515</v>
       </c>
@@ -4113,7 +5695,7 @@
         <v>-14.1</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>34485</v>
       </c>
@@ -4122,7 +5704,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>34454</v>
       </c>
@@ -4131,7 +5713,7 @@
         <v>-19.3</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>34424</v>
       </c>
@@ -4146,20 +5728,980 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0944D377-ECA2-4955-80C7-4CBA70169EC6}">
+  <dimension ref="A1:B118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B118"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4">
+        <v>34607</v>
+      </c>
+      <c r="B1">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>34699</v>
+      </c>
+      <c r="B2">
+        <v>-29.900000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>34789</v>
+      </c>
+      <c r="B3">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>34880</v>
+      </c>
+      <c r="B4">
+        <v>-32.800000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>34972</v>
+      </c>
+      <c r="B5">
+        <v>36.100000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>35064</v>
+      </c>
+      <c r="B6">
+        <v>-73.099999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>35155</v>
+      </c>
+      <c r="B7">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>35246</v>
+      </c>
+      <c r="B8">
+        <v>-27.299999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>35338</v>
+      </c>
+      <c r="B9">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>35430</v>
+      </c>
+      <c r="B10">
+        <v>4.6999999999999957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>35520</v>
+      </c>
+      <c r="B11">
+        <v>-78.199999999999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>35611</v>
+      </c>
+      <c r="B12">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>35703</v>
+      </c>
+      <c r="B13">
+        <v>-22.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>35795</v>
+      </c>
+      <c r="B14">
+        <v>5.0000000000000027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>35885</v>
+      </c>
+      <c r="B15">
+        <v>-17.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>35976</v>
+      </c>
+      <c r="B16">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>36068</v>
+      </c>
+      <c r="B17">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>36160</v>
+      </c>
+      <c r="B18">
+        <v>106.39999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>36250</v>
+      </c>
+      <c r="B19">
+        <v>-156.69999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>36341</v>
+      </c>
+      <c r="B20">
+        <v>109.10000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>36433</v>
+      </c>
+      <c r="B21">
+        <v>-87.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>36525</v>
+      </c>
+      <c r="B22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>36616</v>
+      </c>
+      <c r="B23">
+        <v>-78.400000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>36707</v>
+      </c>
+      <c r="B24">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>36799</v>
+      </c>
+      <c r="B25">
+        <v>4.7999999999999972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>36891</v>
+      </c>
+      <c r="B26">
+        <v>-65.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>36981</v>
+      </c>
+      <c r="B27">
+        <v>-19.799999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>37072</v>
+      </c>
+      <c r="B28">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>37164</v>
+      </c>
+      <c r="B29">
+        <v>-8.0999999999999979</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>37256</v>
+      </c>
+      <c r="B30">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>37346</v>
+      </c>
+      <c r="B31">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>37437</v>
+      </c>
+      <c r="B32">
+        <v>124.10000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>37529</v>
+      </c>
+      <c r="B33">
+        <v>-138.80000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>37621</v>
+      </c>
+      <c r="B34">
+        <v>-20.899999999999991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>37711</v>
+      </c>
+      <c r="B35">
+        <v>31.499999999999989</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>37802</v>
+      </c>
+      <c r="B36">
+        <v>69.100000000000009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>37894</v>
+      </c>
+      <c r="B37">
+        <v>-85.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>37986</v>
+      </c>
+      <c r="B38">
+        <v>133.89999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>38077</v>
+      </c>
+      <c r="B39">
+        <v>-146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>38168</v>
+      </c>
+      <c r="B40">
+        <v>168.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>38260</v>
+      </c>
+      <c r="B41">
+        <v>-292.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
+        <v>38352</v>
+      </c>
+      <c r="B42">
+        <v>366.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
+        <v>38442</v>
+      </c>
+      <c r="B43">
+        <v>-383.09999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
+        <v>38533</v>
+      </c>
+      <c r="B44">
+        <v>104.99999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
+        <v>38625</v>
+      </c>
+      <c r="B45">
+        <v>220.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
+        <v>38717</v>
+      </c>
+      <c r="B46">
+        <v>-42.399999999999991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
+        <v>38807</v>
+      </c>
+      <c r="B47">
+        <v>65.000000000000014</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
+        <v>38898</v>
+      </c>
+      <c r="B48">
+        <v>-387.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>38990</v>
+      </c>
+      <c r="B49">
+        <v>285.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>39082</v>
+      </c>
+      <c r="B50">
+        <v>-163.10000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
+        <v>39172</v>
+      </c>
+      <c r="B51">
+        <v>188.10000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
+        <v>39263</v>
+      </c>
+      <c r="B52">
+        <v>-94.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>39355</v>
+      </c>
+      <c r="B53">
+        <v>-298.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <v>39447</v>
+      </c>
+      <c r="B54">
+        <v>656.19999999999993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>39538</v>
+      </c>
+      <c r="B55">
+        <v>-563.19999999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
+        <v>39629</v>
+      </c>
+      <c r="B56">
+        <v>311.39999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
+        <v>39721</v>
+      </c>
+      <c r="B57">
+        <v>-112.69999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="4">
+        <v>39813</v>
+      </c>
+      <c r="B58">
+        <v>355.09999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
+        <v>39903</v>
+      </c>
+      <c r="B59">
+        <v>-1000.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
+        <v>39994</v>
+      </c>
+      <c r="B60">
+        <v>714.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
+        <v>40086</v>
+      </c>
+      <c r="B61">
+        <v>179.29999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="4">
+        <v>40178</v>
+      </c>
+      <c r="B62">
+        <v>-194.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
+        <v>40268</v>
+      </c>
+      <c r="B63">
+        <v>-91.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
+        <v>40359</v>
+      </c>
+      <c r="B64">
+        <v>66.699999999999989</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
+        <v>40451</v>
+      </c>
+      <c r="B65">
+        <v>153.30000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="4">
+        <v>40543</v>
+      </c>
+      <c r="B66">
+        <v>-249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="4">
+        <v>40633</v>
+      </c>
+      <c r="B67">
+        <v>260.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="4">
+        <v>40724</v>
+      </c>
+      <c r="B68">
+        <v>-426.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="4">
+        <v>40816</v>
+      </c>
+      <c r="B69">
+        <v>345.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="4">
+        <v>40908</v>
+      </c>
+      <c r="B70">
+        <v>-82.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="4">
+        <v>40999</v>
+      </c>
+      <c r="B71">
+        <v>-60.199999999999989</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="4">
+        <v>41090</v>
+      </c>
+      <c r="B72">
+        <v>164.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="4">
+        <v>41182</v>
+      </c>
+      <c r="B73">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="4">
+        <v>41274</v>
+      </c>
+      <c r="B74">
+        <v>-197.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="4">
+        <v>41364</v>
+      </c>
+      <c r="B75">
+        <v>335.70000000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="4">
+        <v>41455</v>
+      </c>
+      <c r="B76">
+        <v>-174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="4">
+        <v>41547</v>
+      </c>
+      <c r="B77">
+        <v>-125.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="4">
+        <v>41639</v>
+      </c>
+      <c r="B78">
+        <v>274.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="4">
+        <v>41729</v>
+      </c>
+      <c r="B79">
+        <v>6.9000000000000199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="4">
+        <v>41820</v>
+      </c>
+      <c r="B80">
+        <v>-240.60000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="4">
+        <v>41912</v>
+      </c>
+      <c r="B81">
+        <v>151.19999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="4">
+        <v>42004</v>
+      </c>
+      <c r="B82">
+        <v>-74.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="4">
+        <v>42094</v>
+      </c>
+      <c r="B83">
+        <v>-72.900000000000006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="4">
+        <v>42185</v>
+      </c>
+      <c r="B84">
+        <v>324.10000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="4">
+        <v>42277</v>
+      </c>
+      <c r="B85">
+        <v>-376</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="4">
+        <v>42369</v>
+      </c>
+      <c r="B86">
+        <v>243.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="4">
+        <v>42460</v>
+      </c>
+      <c r="B87">
+        <v>-68.699999999999989</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="4">
+        <v>42551</v>
+      </c>
+      <c r="B88">
+        <v>-137.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="4">
+        <v>42643</v>
+      </c>
+      <c r="B89">
+        <v>225.79999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="4">
+        <v>42735</v>
+      </c>
+      <c r="B90">
+        <v>-138.80000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="4">
+        <v>42825</v>
+      </c>
+      <c r="B91">
+        <v>250.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="4">
+        <v>42916</v>
+      </c>
+      <c r="B92">
+        <v>-196.39999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="4">
+        <v>43008</v>
+      </c>
+      <c r="B93">
+        <v>-63.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="4">
+        <v>43100</v>
+      </c>
+      <c r="B94">
+        <v>105.70000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="4">
+        <v>43190</v>
+      </c>
+      <c r="B95">
+        <v>-80.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="4">
+        <v>43281</v>
+      </c>
+      <c r="B96">
+        <v>403.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="4">
+        <v>43373</v>
+      </c>
+      <c r="B97">
+        <v>-782.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="4">
+        <v>43465</v>
+      </c>
+      <c r="B98">
+        <v>313.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="4">
+        <v>43555</v>
+      </c>
+      <c r="B99">
+        <v>-44.899999999999991</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="4">
+        <v>43646</v>
+      </c>
+      <c r="B100">
+        <v>334.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="4">
+        <v>43738</v>
+      </c>
+      <c r="B101">
+        <v>-209.20000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="4">
+        <v>43830</v>
+      </c>
+      <c r="B102">
+        <v>30.400000000000013</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="4">
+        <v>43921</v>
+      </c>
+      <c r="B103">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="4">
+        <v>44012</v>
+      </c>
+      <c r="B104">
+        <v>-663.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="4">
+        <v>44104</v>
+      </c>
+      <c r="B105">
+        <v>131.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="4">
+        <v>44196</v>
+      </c>
+      <c r="B106">
+        <v>357.40000000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="4">
+        <v>44286</v>
+      </c>
+      <c r="B107">
+        <v>25.599999999999966</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="4">
+        <v>44377</v>
+      </c>
+      <c r="B108">
+        <v>-311.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="4">
+        <v>44469</v>
+      </c>
+      <c r="B109">
+        <v>210.60000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="4">
+        <v>44561</v>
+      </c>
+      <c r="B110">
+        <v>-72.700000000000017</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="4">
+        <v>44651</v>
+      </c>
+      <c r="B111">
+        <v>200.99999999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="4">
+        <v>44742</v>
+      </c>
+      <c r="B112">
+        <v>-631.59999999999991</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="4">
+        <v>44834</v>
+      </c>
+      <c r="B113">
+        <v>753.89999999999986</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="4">
+        <v>44926</v>
+      </c>
+      <c r="B114">
+        <v>-412.59999999999991</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="4">
+        <v>45016</v>
+      </c>
+      <c r="B115">
+        <v>17.799999999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="4">
+        <v>45107</v>
+      </c>
+      <c r="B116">
+        <v>-395.90000000000009</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B117">
+        <v>740.40000000000009</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="4">
+        <v>45291</v>
+      </c>
+      <c r="B118">
+        <v>-274.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4167,7 +6709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>34424</v>
       </c>
@@ -4176,7 +6718,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>34515</v>
       </c>
@@ -4185,7 +6727,7 @@
         <v>-14.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>34607</v>
       </c>
@@ -4194,7 +6736,7 @@
         <v>-7.7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>34699</v>
       </c>
@@ -4203,7 +6745,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>34789</v>
       </c>
@@ -4212,7 +6754,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>34880</v>
       </c>
@@ -4221,7 +6763,7 @@
         <v>-5.7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>34972</v>
       </c>
@@ -4230,7 +6772,7 @@
         <v>-8.9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>35064</v>
       </c>
@@ -4239,7 +6781,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>35155</v>
       </c>
@@ -4248,7 +6790,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>35246</v>
       </c>
@@ -4257,7 +6799,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>35338</v>
       </c>
@@ -4266,7 +6808,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>35430</v>
       </c>
@@ -4275,7 +6817,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>35520</v>
       </c>
@@ -4284,7 +6826,7 @@
         <v>-24.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>35611</v>
       </c>
@@ -4293,7 +6835,7 @@
         <v>-18.399999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>35703</v>
       </c>
@@ -4302,7 +6844,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>35795</v>
       </c>
@@ -4311,7 +6853,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>35885</v>
       </c>
@@ -4320,7 +6862,7 @@
         <v>-24.7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>35976</v>
       </c>
@@ -4329,7 +6871,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>36068</v>
       </c>
@@ -4338,7 +6880,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>36160</v>
       </c>
@@ -4347,7 +6889,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>36250</v>
       </c>
@@ -4356,7 +6898,7 @@
         <v>-21.9</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>36341</v>
       </c>
@@ -4365,7 +6907,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>36433</v>
       </c>
@@ -4374,7 +6916,7 @@
         <v>-66.599999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>36525</v>
       </c>
@@ -4383,7 +6925,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>36556</v>
       </c>
@@ -4392,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>36585</v>
       </c>
@@ -4401,7 +6943,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>36616</v>
       </c>
@@ -4410,7 +6952,7 @@
         <v>-58.8</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>36707</v>
       </c>
@@ -4419,7 +6961,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>36799</v>
       </c>
@@ -4428,7 +6970,7 @@
         <v>-4.5999999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>36891</v>
       </c>
@@ -4437,7 +6979,7 @@
         <v>-9.9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>36981</v>
       </c>
@@ -4446,7 +6988,7 @@
         <v>-39.5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>37072</v>
       </c>
@@ -4455,7 +6997,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>37164</v>
       </c>
@@ -4464,7 +7006,7 @@
         <v>-5.7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>37256</v>
       </c>
@@ -4473,7 +7015,7 @@
         <v>-9.1999999999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>37346</v>
       </c>
@@ -4482,7 +7024,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>37437</v>
       </c>
@@ -4491,7 +7033,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37529</v>
       </c>
@@ -4500,7 +7042,7 @@
         <v>-43.2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>37621</v>
       </c>
@@ -4509,7 +7051,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>37711</v>
       </c>
@@ -4518,7 +7060,7 @@
         <v>-28.3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>37802</v>
       </c>
@@ -4527,7 +7069,7 @@
         <v>-4.7</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>37894</v>
       </c>
@@ -4536,7 +7078,7 @@
         <v>-43.7</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>37986</v>
       </c>
@@ -4545,7 +7087,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>38077</v>
       </c>
@@ -4554,7 +7096,7 @@
         <v>-32.4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>38168</v>
       </c>
@@ -4563,7 +7105,7 @@
         <v>142.69999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>38260</v>
       </c>
@@ -4572,7 +7114,7 @@
         <v>-171.8</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>38352</v>
       </c>
@@ -4581,7 +7123,7 @@
         <v>70.7</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>38442</v>
       </c>
@@ -4590,7 +7132,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>38533</v>
       </c>
@@ -4599,7 +7141,7 @@
         <v>-105.3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>38625</v>
       </c>
@@ -4608,7 +7150,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>38717</v>
       </c>
@@ -4617,7 +7159,7 @@
         <v>-11.5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>38807</v>
       </c>
@@ -4626,7 +7168,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>38898</v>
       </c>
@@ -4635,7 +7177,7 @@
         <v>-94</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>38990</v>
       </c>
@@ -4644,7 +7186,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>39082</v>
       </c>
@@ -4653,7 +7195,7 @@
         <v>-96.5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>39172</v>
       </c>
@@ -4662,7 +7204,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>39263</v>
       </c>
@@ -4671,7 +7213,7 @@
         <v>-14.8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>39355</v>
       </c>
@@ -4680,7 +7222,7 @@
         <v>-69.7</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>39447</v>
       </c>
@@ -4689,7 +7231,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>39538</v>
       </c>
@@ -4698,7 +7240,7 @@
         <v>-90.4</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>39629</v>
       </c>
@@ -4707,7 +7249,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>39721</v>
       </c>
@@ -4716,7 +7258,7 @@
         <v>-9.6</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>39813</v>
       </c>
@@ -4725,7 +7267,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>39903</v>
       </c>
@@ -4734,7 +7276,7 @@
         <v>-22.7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>39994</v>
       </c>
@@ -4743,7 +7285,7 @@
         <v>-150.6</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>40086</v>
       </c>
@@ -4752,7 +7294,7 @@
         <v>180.3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>40178</v>
       </c>
@@ -4761,7 +7303,7 @@
         <v>-21.4</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>40268</v>
       </c>
@@ -4770,7 +7312,7 @@
         <v>-69.599999999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>40359</v>
       </c>
@@ -4779,7 +7321,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>40451</v>
       </c>
@@ -4788,7 +7330,7 @@
         <v>94.7</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>40543</v>
       </c>
@@ -4797,7 +7339,7 @@
         <v>-26.2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>40633</v>
       </c>
@@ -4806,7 +7348,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>40724</v>
       </c>
@@ -4815,7 +7357,7 @@
         <v>-160.5</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>40816</v>
       </c>
@@ -4824,7 +7366,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>40908</v>
       </c>
@@ -4833,7 +7375,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>40999</v>
       </c>
@@ -4842,7 +7384,7 @@
         <v>-144.1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>41090</v>
       </c>
@@ -4851,7 +7393,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>41182</v>
       </c>
@@ -4860,7 +7402,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>41274</v>
       </c>
@@ -4869,7 +7411,7 @@
         <v>-17.3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>41364</v>
       </c>
@@ -4878,7 +7420,7 @@
         <v>-34.799999999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>41455</v>
       </c>
@@ -4887,7 +7429,7 @@
         <v>-17.8</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>41547</v>
       </c>
@@ -4896,7 +7438,7 @@
         <v>-71.7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>41639</v>
       </c>
@@ -4905,7 +7447,7 @@
         <v>-38.4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>41729</v>
       </c>
@@ -4914,7 +7456,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>41820</v>
       </c>
@@ -4923,7 +7465,7 @@
         <v>-46.7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>41912</v>
       </c>
@@ -4932,7 +7474,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>42004</v>
       </c>
@@ -4941,7 +7483,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>42094</v>
       </c>
@@ -4950,7 +7492,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>42185</v>
       </c>
@@ -4959,7 +7501,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>42277</v>
       </c>
@@ -4968,7 +7510,7 @@
         <v>-67.099999999999994</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>42369</v>
       </c>
@@ -4977,7 +7519,7 @@
         <v>120.6</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>42460</v>
       </c>
@@ -4986,7 +7528,7 @@
         <v>-23.2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>42551</v>
       </c>
@@ -4995,7 +7537,7 @@
         <v>-87.5</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>42643</v>
       </c>
@@ -5004,7 +7546,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>42735</v>
       </c>
@@ -5013,7 +7555,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>42825</v>
       </c>
@@ -5022,7 +7564,7 @@
         <v>111.2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>42916</v>
       </c>
@@ -5031,7 +7573,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>43008</v>
       </c>
@@ -5040,7 +7582,7 @@
         <v>-82.2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>43100</v>
       </c>
@@ -5049,7 +7591,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>43190</v>
       </c>
@@ -5058,7 +7600,7 @@
         <v>-45.2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>43281</v>
       </c>
@@ -5067,7 +7609,7 @@
         <v>253.4</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>43373</v>
       </c>
@@ -5076,7 +7618,7 @@
         <v>-220.3</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>43465</v>
       </c>
@@ -5085,7 +7627,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>43555</v>
       </c>
@@ -5094,7 +7636,7 @@
         <v>129.5</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>43646</v>
       </c>
@@ -5103,7 +7645,7 @@
         <v>-32.200000000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>43738</v>
       </c>
@@ -5112,7 +7654,7 @@
         <v>-33.700000000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>43830</v>
       </c>
@@ -5121,7 +7663,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>43921</v>
       </c>
@@ -5130,7 +7672,7 @@
         <v>251.1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>44012</v>
       </c>
@@ -5139,7 +7681,7 @@
         <v>-372.1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>44104</v>
       </c>
@@ -5148,7 +7690,7 @@
         <v>-19.899999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>44196</v>
       </c>
@@ -5157,7 +7699,7 @@
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>44286</v>
       </c>
@@ -5166,7 +7708,7 @@
         <v>148.6</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>44377</v>
       </c>
@@ -5175,7 +7717,7 @@
         <v>-125.5</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>44469</v>
       </c>
@@ -5184,7 +7726,7 @@
         <v>-20.5</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>44561</v>
       </c>
@@ -5193,7 +7735,7 @@
         <v>-41.9</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>44651</v>
       </c>
@@ -5202,7 +7744,7 @@
         <v>166.2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>44742</v>
       </c>
@@ -5211,7 +7753,7 @@
         <v>-151.69999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>44834</v>
       </c>
@@ -5220,7 +7762,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>44926</v>
       </c>
@@ -5229,7 +7771,7 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>45016</v>
       </c>
@@ -5238,7 +7780,7 @@
         <v>67.7</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>45107</v>
       </c>
@@ -5247,7 +7789,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>45199</v>
       </c>
@@ -5256,7 +7798,7 @@
         <v>-136.6</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>45291</v>
       </c>
